--- a/frontend-cemos/public/assets/content/direito/7-sanremo/script/m_consolidado.xlsx
+++ b/frontend-cemos/public/assets/content/direito/7-sanremo/script/m_consolidado.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="190">
   <si>
     <t xml:space="preserve">bibliografia_titulo</t>
   </si>
@@ -64,9 +64,6 @@
     <t xml:space="preserve">Pág 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Parte I: Disposições Gerais</t>
-  </si>
-  <si>
     <t xml:space="preserve">Considerando o contexto histórico e a motivação para a criação do Manual de San Remo, qual documento de 1913 é citado pelos especialistas como o "equivalente moderno" cujas normas precisavam de atualização?</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t xml:space="preserve">Pág 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Parte II: Regiões de Operações</t>
-  </si>
-  <si>
     <t xml:space="preserve">De acordo com as regras estabelecidas na Seção I sobre a permanência de navios de guerra beligerantes em águas neutras, qual é o limite temporal geral e suas exceções?</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t xml:space="preserve">Pág 8</t>
   </si>
   <si>
-    <t xml:space="preserve">Parte III: Regras Básicas e Discriminação do Alvo</t>
-  </si>
-  <si>
     <t xml:space="preserve">De acordo com a definição de "objetivos militares" aplicável a objetos/bens no contexto de conflitos armados no mar, qual critério deve ser satisfeito para que um objeto seja legitimamente atacado?</t>
   </si>
   <si>
@@ -334,9 +325,6 @@
     <t xml:space="preserve">Pág 14</t>
   </si>
   <si>
-    <t xml:space="preserve">Parte IV: Métodos e meios de Guerra no Mar</t>
-  </si>
-  <si>
     <t xml:space="preserve">De acordo com as regras sobre o uso de minas navais estabelecidas na Seção I, em qual das situações abaixo o uso de minas flutuantes é permitido?</t>
   </si>
   <si>
@@ -400,9 +388,6 @@
     <t xml:space="preserve">Pág 17</t>
   </si>
   <si>
-    <t xml:space="preserve">Parte V: Medidas curtas de ataque</t>
-  </si>
-  <si>
     <t xml:space="preserve">No contexto da determinação do caráter de navios durante um conflito armado, qual é o valor probatório atribuído pelo Manual ao fato de um navio mercante hastear a bandeira de um Estado neutro?</t>
   </si>
   <si>
@@ -545,9 +530,6 @@
   </si>
   <si>
     <t xml:space="preserve">Nos termos do **parágrafo 156**, a captura exerce-se interceptando, ordenando pouso em aeródromo beligerante e tomando-a como prêmio após visita.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Parte VI: Pessoas protegidas, transportes médicos e aeronaves médicas</t>
   </si>
   <si>
     <t xml:space="preserve">O Manual de San Remo prevê a possibilidade de acordos especiais entre as partes em conflito para fins humanitários no mar. Qual das alternativas descreve corretamente essa previsão?</t>
@@ -697,13 +679,17 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -901,10 +887,13 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A26" activeCellId="0" sqref="2:26"/>
+      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2:J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="24.51"/>
+  </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -945,803 +934,803 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="0" t="s">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="s">
+      <c r="I2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="0" t="s">
+      <c r="J2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="0" t="s">
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="C3" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="0" t="s">
+      <c r="I3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I3" s="0" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="H4" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="I4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="G5" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="H5" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="I5" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="J5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="C6" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="0" t="s">
+      <c r="E6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C6" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="0" t="s">
+      <c r="F6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="G6" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="H6" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H6" s="0" t="s">
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="0" t="s">
+      <c r="C7" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="0" t="s">
+      <c r="E7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="0" t="s">
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="G7" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="0" t="s">
+      <c r="H7" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="I7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H7" s="0" t="s">
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I7" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J7" s="0" t="s">
+      <c r="C8" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="0" t="s">
+      <c r="E8" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="F8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="G8" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="H8" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="I8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G8" s="0" t="s">
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H8" s="0" t="s">
+      <c r="C9" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="I8" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="0" t="s">
+      <c r="E9" s="2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="0" t="s">
+      <c r="F9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="0" t="s">
+      <c r="G9" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E9" s="0" t="s">
+      <c r="H9" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F9" s="0" t="s">
+      <c r="I9" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G9" s="0" t="s">
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="0" t="s">
+      <c r="C10" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="I9" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" s="0" t="s">
+      <c r="E10" s="2" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="0" t="s">
+      <c r="F10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="0" t="s">
+      <c r="G10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="H10" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F10" s="0" t="s">
+      <c r="I10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G10" s="0" t="s">
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="H10" s="0" t="s">
+      <c r="C11" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="I10" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J10" s="0" t="s">
+      <c r="E11" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="0" t="s">
+      <c r="F11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="G11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="H11" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="F11" s="0" t="s">
+      <c r="I11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G11" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="H11" s="0" t="s">
+      <c r="C12" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="0" t="s">
+      <c r="E12" s="2" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="0" t="s">
+      <c r="F12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="0" t="s">
+      <c r="G12" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="H12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="F12" s="0" t="s">
+      <c r="I12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G12" s="0" t="s">
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="H12" s="0" t="s">
+      <c r="C13" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="I12" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="0" t="s">
+      <c r="E13" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="0" t="s">
+      <c r="F13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="0" t="s">
+      <c r="G13" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="E13" s="0" t="s">
+      <c r="H13" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F13" s="0" t="s">
+      <c r="I13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G13" s="0" t="s">
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="H13" s="0" t="s">
+      <c r="C14" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I13" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J13" s="0" t="s">
+      <c r="E14" s="2" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" s="0" t="s">
+      <c r="F14" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C14" s="0" t="s">
+      <c r="G14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="0" t="s">
+      <c r="H14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="0" t="s">
+      <c r="I14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G14" s="0" t="s">
+      <c r="C15" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="H14" s="0" t="s">
+      <c r="E15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="I14" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="0" t="s">
+      <c r="F15" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="0" t="s">
+      <c r="G15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="0" t="s">
+      <c r="H15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C24" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="D15" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="H15" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="I15" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J15" s="0" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="C16" s="0" t="s">
+      <c r="D24" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="D16" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="E16" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F16" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="H16" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="I16" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J16" s="0" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="H17" s="0" t="s">
-        <v>131</v>
-      </c>
-      <c r="I17" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="0" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="0" t="s">
-        <v>133</v>
-      </c>
-      <c r="C18" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>134</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>136</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>137</v>
-      </c>
-      <c r="H18" s="0" t="s">
-        <v>138</v>
-      </c>
-      <c r="I18" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J18" s="0" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>142</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="G19" s="0" t="s">
-        <v>144</v>
-      </c>
-      <c r="H19" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="I19" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="0" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>147</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>148</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>149</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="G20" s="0" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="0" t="s">
-        <v>152</v>
-      </c>
-      <c r="I20" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="0" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>155</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>156</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>157</v>
-      </c>
-      <c r="G21" s="0" t="s">
-        <v>158</v>
-      </c>
-      <c r="H21" s="0" t="s">
-        <v>159</v>
-      </c>
-      <c r="I21" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="0" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>161</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D22" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>164</v>
-      </c>
-      <c r="G22" s="0" t="s">
-        <v>165</v>
-      </c>
-      <c r="H22" s="0" t="s">
-        <v>166</v>
-      </c>
-      <c r="I22" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J22" s="0" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="0" t="s">
-        <v>169</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="G23" s="0" t="s">
-        <v>172</v>
-      </c>
-      <c r="H23" s="0" t="s">
-        <v>173</v>
-      </c>
-      <c r="I23" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J23" s="0" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>168</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>176</v>
-      </c>
-      <c r="E24" s="0" t="s">
+      <c r="D25" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="E25" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="G24" s="0" t="s">
+      <c r="F25" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="0" t="s">
+      <c r="G25" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J24" s="0" t="s">
+      <c r="H25" s="2" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="I25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C25" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D25" s="0" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E25" s="0" t="s">
+      <c r="C26" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="D26" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="0" t="s">
+      <c r="E26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G25" s="0" t="s">
+      <c r="F26" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="0" t="s">
+      <c r="G26" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="J25" s="0" t="s">
+      <c r="H26" s="2" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" s="0" t="s">
+      <c r="I26" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>175</v>
-      </c>
-      <c r="D26" s="0" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" s="0" t="s">
-        <v>191</v>
-      </c>
-      <c r="F26" s="0" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="0" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="0" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="0" t="s">
-        <v>195</v>
       </c>
     </row>
   </sheetData>
